--- a/data/decision_analysis.xlsx
+++ b/data/decision_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yakir/Documents/Monash University/2023 S1/FIT3164 Data science project 2/fit3164-project/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yakir/Documents/Monash University/2023 S1/FIT3164 Data science project 2/fit3164-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF5287-3AF1-B149-A4C1-A32B5AEB458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B30DF87-55F3-1F4A-AA5E-E95CC8FE93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C9331C5C-3E1B-1149-BFFD-5499CEEBA534}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{C9331C5C-3E1B-1149-BFFD-5499CEEBA534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6180,7 +6180,99 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
+  <location ref="A53:C59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="15"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Classification" fld="15" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
   <location ref="A35:C41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6271,8 +6363,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
   <location ref="A17:C24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6357,8 +6449,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
   <location ref="A1:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6407,98 +6499,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="15"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Classification" fld="15" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
-  <location ref="A53:C59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -6826,7 +6826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50187FAC-F2B5-5042-AC60-BDB8B0EE9C51}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
@@ -12074,7 +12074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE399293-5FBA-014E-BCB6-AAB0AC976680}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>

--- a/data/decision_analysis.xlsx
+++ b/data/decision_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yakir/Documents/Monash University/2023 S1/FIT3164 Data science project 2/fit3164-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B30DF87-55F3-1F4A-AA5E-E95CC8FE93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9283144-5FC0-9742-8CF1-EC1BF047C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{C9331C5C-3E1B-1149-BFFD-5499CEEBA534}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6180,7 +6180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
   <location ref="A53:C59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6272,7 +6272,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
   <location ref="A35:C41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6364,7 +6364,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
   <location ref="A17:C24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6450,7 +6450,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
   <location ref="A1:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6828,7 +6828,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="P1" activeCellId="1" sqref="K1:K1048576 P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12074,8 +12074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE399293-5FBA-014E-BCB6-AAB0AC976680}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/decision_analysis.xlsx
+++ b/data/decision_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yakir/Documents/Monash University/2023 S1/FIT3164 Data science project 2/fit3164-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9283144-5FC0-9742-8CF1-EC1BF047C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E11013-D93B-C14F-8619-5C622E733F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{C9331C5C-3E1B-1149-BFFD-5499CEEBA534}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C9331C5C-3E1B-1149-BFFD-5499CEEBA534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6180,99 +6180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
-  <location ref="A53:C59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="15"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Classification" fld="15" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
   <location ref="A35:C41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6363,8 +6271,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
   <location ref="A17:C24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6449,8 +6357,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
   <location ref="A1:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6499,6 +6407,98 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="15"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Classification" fld="15" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
+  <location ref="A53:C59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -6826,9 +6826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50187FAC-F2B5-5042-AC60-BDB8B0EE9C51}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" activeCellId="1" sqref="K1:K1048576 P1:P1048576"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12074,7 +12074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE399293-5FBA-014E-BCB6-AAB0AC976680}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/data/decision_analysis.xlsx
+++ b/data/decision_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yakir/Documents/Monash University/2023 S1/FIT3164 Data science project 2/fit3164-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E11013-D93B-C14F-8619-5C622E733F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C3C9B-7799-7142-B328-A15C095239D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C9331C5C-3E1B-1149-BFFD-5499CEEBA534}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="220">
   <si>
     <t>Decision</t>
   </si>
@@ -426,6 +426,282 @@
   </si>
   <si>
     <t>Classification_Binary</t>
+  </si>
+  <si>
+    <t>Outcome_Sought</t>
+  </si>
+  <si>
+    <t>Mids to Play in front, getting caught on wrong side of ball</t>
+  </si>
+  <si>
+    <t>C'Player 48 high backs are attacPlayer 11, cant have too many Saints players running back to the goal square (1-2 only). Asked to pass message onto other fwds</t>
+  </si>
+  <si>
+    <t>1 &amp; 2 mids stay outside 50, only 3 mid to go in (if any of them)</t>
+  </si>
+  <si>
+    <t>Doug not to kick in, end of qtr.</t>
+  </si>
+  <si>
+    <t>Swap Burnes to wing and Player 22 inside</t>
+  </si>
+  <si>
+    <t>Player 26 on Ball, Player 21 Half back, Player 22 to the Wing</t>
+  </si>
+  <si>
+    <t>Player 9am to play forward FTE, Player 23 to move forward so we have 6 forward</t>
+  </si>
+  <si>
+    <t>LDLs to go into the square Player 37er than line</t>
+  </si>
+  <si>
+    <t>Man on man on the switch (perimeter)</t>
+  </si>
+  <si>
+    <t>Wings rip it forward from the centre bounce, back on the 45 and run hard. Defenders to push up hard at centre bounce</t>
+  </si>
+  <si>
+    <t>Use Player 35 as a mid if Player 30 looks tired</t>
+  </si>
+  <si>
+    <t>Player 36 to Player 30. Get to the front as defensive mid on throw ins as your positioning is forcing our winger into the wrong spot</t>
+  </si>
+  <si>
+    <t>Player 38 to Player 32. We want to pull the pockets deeper on KIN-d</t>
+  </si>
+  <si>
+    <t>Want second defender to come up with his direct opponent so they don't have +1 at stoppages around the arc</t>
+  </si>
+  <si>
+    <t>Trying to get Player 11 more involved in the game</t>
+  </si>
+  <si>
+    <t>When Player 9am goes forward we want Player 35 on wing and Player 13 inside</t>
+  </si>
+  <si>
+    <t>We want a spare number behind the ball so move a forward back</t>
+  </si>
+  <si>
+    <t>We don't want to play slow, kick-Player 16 for the rest of the quarter</t>
+  </si>
+  <si>
+    <t>Swap Player 25 in Player 50 to get Player 25 deeper defensively</t>
+  </si>
+  <si>
+    <t>We want to drop the winger 10m off the back of the stoppage</t>
+  </si>
+  <si>
+    <t>Need second forward to get higher at D50 stoppages so they can't back feed</t>
+  </si>
+  <si>
+    <t>Want to swap Player 48 and Player 35</t>
+  </si>
+  <si>
+    <t>Want our forwards to play higher at stoppages</t>
+  </si>
+  <si>
+    <t>Adjusted D50 stoppage structure as they are holding 2 mids out</t>
+  </si>
+  <si>
+    <t>Want a small in the goal square at centre bounce</t>
+  </si>
+  <si>
+    <t>Want to change the centre bounce structure</t>
+  </si>
+  <si>
+    <t>Player 38 to Player 11. Don't always want Player 31 deep on Grimes</t>
+  </si>
+  <si>
+    <t>Want Paton on Bolton not Player 50</t>
+  </si>
+  <si>
+    <t>Want Player 29 to play on Grimes (almost like a defensive forward)</t>
+  </si>
+  <si>
+    <t>We want to get some ball control. Look for kick-Player 16</t>
+  </si>
+  <si>
+    <t>Want to bring the genius in closer to the back of the ruck contest</t>
+  </si>
+  <si>
+    <t>Want forwards to hold on about the 50 for centre bounce (don't come in the square)</t>
+  </si>
+  <si>
+    <t>Player 42 needs to hang around the arc on our entries</t>
+  </si>
+  <si>
+    <t>Moving Player 30 from midfield to defence, Player 45 from defence to genius (forward) and Player 9am more midfield than forward</t>
+  </si>
+  <si>
+    <t>Want forwards higher up the ground in general, paddock structure</t>
+  </si>
+  <si>
+    <t>Want forwards up high for density in last 2mins of quarter</t>
+  </si>
+  <si>
+    <t>Want Player 49 behind the ball for a spare defender</t>
+  </si>
+  <si>
+    <t>Want Paton or Player 30 to be aware of Bolton sitting in corridor</t>
+  </si>
+  <si>
+    <t>Want to change our hit to player at centre bounce</t>
+  </si>
+  <si>
+    <t>Tell Player 11 that we want him higher up the ground</t>
+  </si>
+  <si>
+    <t>Want to attack deeper going inside 50</t>
+  </si>
+  <si>
+    <t>Want to adjust the positioning of off ball winger at D50 stoppage</t>
+  </si>
+  <si>
+    <t>Want Player 42 off the ground</t>
+  </si>
+  <si>
+    <t>Want Player 31 to use his tank and run their ruckmen around, give him the ball</t>
+  </si>
+  <si>
+    <t>Change our hitspot and structure  at centre bounce withPlayer 31 rucPlayer 11</t>
+  </si>
+  <si>
+    <t>Want the aggressive half back at centre bounce to stop coming in and provide deeper protection</t>
+  </si>
+  <si>
+    <t>Want to move the ball a bit slower when in possession</t>
+  </si>
+  <si>
+    <t>Want the spare they are trying to get to have an opponent at centre bounce</t>
+  </si>
+  <si>
+    <t>Want Player 43 closer to his opponent</t>
+  </si>
+  <si>
+    <t>We want forwards to think about engaging defenders, don't just keep going up the ground</t>
+  </si>
+  <si>
+    <t>Spare behind the ball to protect lead</t>
+  </si>
+  <si>
+    <t>Player 36 to Player 48. Want to drop our on ball winger 3metres back at D50 stoppages</t>
+  </si>
+  <si>
+    <t>We want our spare defender 5m off the back of the stoppage</t>
+  </si>
+  <si>
+    <t>Use our midfielders to rotate forward because we are low on rotations</t>
+  </si>
+  <si>
+    <t>Want to move into ball control, kick-Player 16 attack</t>
+  </si>
+  <si>
+    <t>Move Player 48 forward because we might need him in ruck later</t>
+  </si>
+  <si>
+    <t>We want Player 31 to come off when their ruck comes off</t>
+  </si>
+  <si>
+    <t>We want to build the ball up and use more kick-Player 16 in defensive half</t>
+  </si>
+  <si>
+    <t>We want forwards to press Player 16 tighter when they switch the ball</t>
+  </si>
+  <si>
+    <t>Want to change structure at midfield stoppages. Shoulder cover defensively</t>
+  </si>
+  <si>
+    <t>Want midfielders to keep rotating</t>
+  </si>
+  <si>
+    <t>We want to take more territory from D50 when in possession</t>
+  </si>
+  <si>
+    <t>We want Player 45 to work really deep defensively as a forward to help us get out of D50</t>
+  </si>
+  <si>
+    <t>We want forwards up the ground to help us defend. Paddock structure</t>
+  </si>
+  <si>
+    <t>Want Player 31 to stay out of F50 stoppages</t>
+  </si>
+  <si>
+    <t>When we are in paddock we can attack goal face more on our entry kicks</t>
+  </si>
+  <si>
+    <t>Kick the ball away from Witts on KIN</t>
+  </si>
+  <si>
+    <t>Want Player 30 taPlayer 11 KIN not Player 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to go into a ball control attack to protect the lead </t>
+  </si>
+  <si>
+    <t>Want Player 14 on ball at end of quarter</t>
+  </si>
+  <si>
+    <t>Want players to prioritise holding the ball in for repeat stoppages</t>
+  </si>
+  <si>
+    <t>Want Player 9am to do centre bounce and then play as a forward</t>
+  </si>
+  <si>
+    <t>Player 9am purely as a forward now, not even centre bounce</t>
+  </si>
+  <si>
+    <t>Forward up to stoppage to play on their forward at the stoppage</t>
+  </si>
+  <si>
+    <t>Want a forward behind the ball to save the game</t>
+  </si>
+  <si>
+    <t>Want mids to play man v man at next centre bounce</t>
+  </si>
+  <si>
+    <t>Need Player 45 to assess the numbers ahead of the ball before he gets too high as a forward</t>
+  </si>
+  <si>
+    <t>Want our 2nd highest forward at stoppages to drop back and engage his direct opponent</t>
+  </si>
+  <si>
+    <t>Want to use shorter options by foot</t>
+  </si>
+  <si>
+    <t>Want Player 45 moved to wing and Player 48 to play as a forward</t>
+  </si>
+  <si>
+    <t>Want to change our centre bounce structure</t>
+  </si>
+  <si>
+    <t>Player 9am to play as a forward only for rest of quarter</t>
+  </si>
+  <si>
+    <t>Want to move Player 45 to defence from wing, Player 30 mid from defence and a midfielder either goes wing or forward</t>
+  </si>
+  <si>
+    <t>Want our Player 43 down the line kicks to go towards corridor</t>
+  </si>
+  <si>
+    <t>Want Player 48 as a forward if Player 31 goes into ruck</t>
+  </si>
+  <si>
+    <t>Need McKenzie on Langdon's wing</t>
+  </si>
+  <si>
+    <t>Get Jones off the ground</t>
+  </si>
+  <si>
+    <t>Jones to play as a forward when he goes back on, Player 48 wing</t>
+  </si>
+  <si>
+    <t>Player 9am to start on ball and run hard forward</t>
+  </si>
+  <si>
+    <t>Move Player 11 to disconnected forward</t>
+  </si>
+  <si>
+    <t>Green Player 23e</t>
   </si>
 </sst>
 </file>
@@ -4431,7 +4707,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yakir Havin" refreshedDate="45048.476884837961" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{B0FA36CF-F81C-1340-8FC0-CD241FD0A90E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P93" sheet="Sheet1"/>
+    <worksheetSource ref="A1:Q93" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Decision" numFmtId="0">
@@ -6180,99 +6456,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
-  <location ref="A35:C41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="15"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Classification" fld="15" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAA60AE6-0C3E-8448-9887-83353A6E0B0F}" name="PivotTable6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
   <location ref="A17:C24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6357,8 +6541,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478BA645-ED55-2142-8FD5-ECA1AB24B187}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Quarter">
   <location ref="A1:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6435,8 +6619,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982984A0-7D40-CC4A-94E5-14BF1B036463}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Average_Pressure">
   <location ref="A53:C59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6483,6 +6667,98 @@
   </pivotFields>
   <rowFields count="1">
     <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="15"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Classification" fld="15" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6994B56D-9B22-7947-8941-05595B5C1D53}" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Effectiveness">
+  <location ref="A35:C41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -6824,25 +7100,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50187FAC-F2B5-5042-AC60-BDB8B0EE9C51}">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14" style="7" customWidth="1"/>
-    <col min="11" max="13" width="15.1640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14" style="7" customWidth="1"/>
+    <col min="12" max="14" width="15.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6853,52 +7129,55 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6908,54 +7187,57 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2">
         <v>354</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>67</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>52</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.77610000000000001</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>157.15</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>87</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>1.8063</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="8">
+      <c r="N2" s="8">
         <v>-1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q43" si="0">IF(P2="GOOD", 1, 0)</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R43" si="0">IF(Q2="GOOD", 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="11"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -6965,54 +7247,57 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3">
         <v>272</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>63</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>48</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.76190000000000002</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>150.89999999999998</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>81</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>1.863</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>6</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="11"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -7022,54 +7307,57 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4">
         <v>198</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>36</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>29</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.80559999999999998</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>73.95</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>45</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>1.6433</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="11"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -7079,54 +7367,57 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5">
         <v>131</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>22</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>17</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.77270000000000005</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>58.600000000000016</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>30</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>1.9533</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>-7</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="11"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -7136,54 +7427,57 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6">
         <v>775</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>139</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>113</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.81289999999999996</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>271.09999999999991</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>171</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>1.5853999999999999</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>-1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>20</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="11"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7193,54 +7487,57 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7">
         <v>124</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.83330000000000004</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>63.050000000000011</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>27</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>2.3351999999999999</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>-7</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>20</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="11"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -7250,54 +7547,57 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8">
         <v>919</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>174</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>136</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.78159999999999996</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>391.79999999999967</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>221</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>1.7728999999999999</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>-1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="11"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -7307,53 +7607,56 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9">
         <v>119</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>16</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.69569999999999999</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>77.90000000000002</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>35</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>2.2256999999999998</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>22</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="5"/>
+      <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -7363,54 +7666,57 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10">
         <v>149</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>27</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>25</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.92589999999999995</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>82.550000000000011</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>36</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>2.2930999999999999</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>22</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="11"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -7420,54 +7726,57 @@
       <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11">
         <v>398</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>87</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>73</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.83909999999999996</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>205.54999999999993</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>114</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>1.8030999999999999</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>-6</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>20</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="11"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -7477,54 +7786,57 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12">
         <v>580</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>120</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>97</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.80830000000000002</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>299.0499999999999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>159</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>1.8808</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>22</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="11"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -7534,54 +7846,57 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13">
         <v>364</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>80</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>64</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.8</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>191.45</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>105</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>1.8232999999999999</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <v>-6</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>20</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="11"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -7591,54 +7906,57 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14">
         <v>315</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>63</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>55</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.873</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>136.15000000000003</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>80</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>1.7019</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
         <v>-1</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>20</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="11"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -7648,53 +7966,56 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15">
         <v>505</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>100</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>75</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.75</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>264.24999999999983</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>134</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1.972</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>-6</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>20</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="T15" s="2"/>
+      <c r="S15" s="5"/>
+      <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7704,53 +8025,56 @@
       <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16">
         <v>487</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>92</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>70</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.76090000000000002</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>206.14999999999995</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>118</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>1.7470000000000001</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>0</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>22</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="T16" s="2"/>
+      <c r="S16" s="5"/>
+      <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -7760,53 +8084,56 @@
       <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17">
         <v>107</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>17</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>12</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.70589999999999997</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>47.050000000000004</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>26</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>1.8096000000000001</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M17" s="8">
+      <c r="N17" s="8">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>22</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="T17" s="2"/>
+      <c r="S17" s="5"/>
+      <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -7816,53 +8143,56 @@
       <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18">
         <v>199</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>36</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>25</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.69440000000000002</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>88.800000000000026</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>51</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>1.7412000000000001</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>0</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>22</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="T18" s="2"/>
+      <c r="S18" s="5"/>
+      <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7872,53 +8202,56 @@
       <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19">
         <v>185</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>44</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>36</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.81820000000000004</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>105.05000000000004</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>58</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.8111999999999999</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <v>-1</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>3</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>20</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="T19" s="2"/>
+      <c r="S19" s="5"/>
+      <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7928,53 +8261,56 @@
       <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20">
         <v>53</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.63639999999999997</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>33.950000000000003</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>14</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.4249999999999998</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N20" s="8">
         <v>-1</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>20</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="T20" s="2"/>
+      <c r="S20" s="5"/>
+      <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -7984,53 +8320,56 @@
       <c r="C21" s="2">
         <v>4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21">
         <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>6.45</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>6</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>1.075</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>22</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="T21" s="2"/>
+      <c r="S21" s="5"/>
+      <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8040,53 +8379,56 @@
       <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>0.75</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <v>3</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>4</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>0.75</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="8">
+      <c r="N22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>22</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="T22" s="2"/>
+      <c r="S22" s="5"/>
+      <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8096,53 +8438,56 @@
       <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23">
         <v>27</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>0.8</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>20.25</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>7</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>2.8929</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>22</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="T23" s="2"/>
+      <c r="S23" s="5"/>
+      <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8152,53 +8497,56 @@
       <c r="C24" s="2">
         <v>4</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24">
         <v>210</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>36</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>26</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>0.72219999999999995</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>88.500000000000014</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>46</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>1.9238999999999999</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="8">
+      <c r="N24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>22</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="T24" s="2"/>
+      <c r="S24" s="5"/>
+      <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8208,53 +8556,56 @@
       <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25">
         <v>142</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>28</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>20</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>0.71430000000000005</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>78.400000000000006</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>36</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>2.1778</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M25" s="8">
+      <c r="N25" s="8">
         <v>-6</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>20</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="T25" s="2"/>
+      <c r="S25" s="5"/>
+      <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -8264,53 +8615,56 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26">
         <v>157</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>24</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>20</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>0.83330000000000004</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>56.35</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>33</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>1.7076</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="8">
+      <c r="N26" s="8">
         <v>-12</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>20</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="5"/>
-      <c r="T26" s="2"/>
+      <c r="S26" s="5"/>
+      <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -8320,53 +8674,56 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27">
         <v>179</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>32</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>29</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>60.450000000000017</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>37</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>1.6337999999999999</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M27" s="8">
+      <c r="N27" s="8">
         <v>7</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>22</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="T27" s="2"/>
+      <c r="S27" s="5"/>
+      <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -8376,53 +8733,56 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28">
         <v>98</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>15</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>14</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>0.93330000000000002</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>36.5</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>20</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>1.825</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M28" s="8">
+      <c r="N28" s="8">
         <v>6</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>22</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="T28" s="2"/>
+      <c r="S28" s="5"/>
+      <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -8432,53 +8792,56 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29">
         <v>593</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>104</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>86</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>0.82689999999999997</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>256.54999999999984</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>130</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>1.9735</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M29" s="8">
+      <c r="N29" s="8">
         <v>-7</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>20</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R29" s="5"/>
-      <c r="T29" s="2"/>
+      <c r="S29" s="5"/>
+      <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -8488,53 +8851,56 @@
       <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30">
         <v>33</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" s="4">
         <v>1</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <v>23.7</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>9</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>2.6333000000000002</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M30" s="8">
+      <c r="N30" s="8">
         <v>-5</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>3</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>20</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="T30" s="2"/>
+      <c r="S30" s="5"/>
+      <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -8544,53 +8910,56 @@
       <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31">
         <v>190</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>39</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>32</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>0.82050000000000001</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>84.800000000000026</v>
       </c>
-      <c r="J31" s="7">
+      <c r="K31" s="7">
         <v>52</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>1.6308</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M31" s="8">
+      <c r="N31" s="8">
         <v>-5</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>20</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="T31" s="2"/>
+      <c r="S31" s="5"/>
+      <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -8600,53 +8969,56 @@
       <c r="C32" s="3">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32">
         <v>130</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>22</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>19</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>0.86360000000000003</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>64.750000000000014</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="7">
         <v>34</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>1.9044000000000001</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M32" s="8">
+      <c r="N32" s="8">
         <v>-5</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>20</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="T32" s="2"/>
+      <c r="S32" s="5"/>
+      <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -8656,53 +9028,56 @@
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33">
         <v>91</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>16</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>14</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>0.875</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <v>30.15</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="7">
         <v>17</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>1.7735000000000001</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M33" s="8">
+      <c r="N33" s="8">
         <v>-6</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>20</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="T33" s="2"/>
+      <c r="S33" s="5"/>
+      <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -8712,53 +9087,56 @@
       <c r="C34" s="3">
         <v>2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34">
         <v>467</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>95</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>78</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>0.82110000000000005</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <v>242.74999999999989</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
         <v>129</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>1.8817999999999999</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M34" s="8">
+      <c r="N34" s="8">
         <v>-6</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>20</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R34" s="5"/>
-      <c r="T34" s="2"/>
+      <c r="S34" s="5"/>
+      <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -8768,53 +9146,56 @@
       <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35">
         <v>62</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>10</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>8</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>0.8</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <v>25.749999999999996</v>
       </c>
-      <c r="J35" s="7">
+      <c r="K35" s="7">
         <v>15</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>1.7166999999999999</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M35" s="8">
+      <c r="N35" s="8">
         <v>-6</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>20</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="T35" s="2"/>
+      <c r="S35" s="5"/>
+      <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -8824,53 +9205,56 @@
       <c r="C36" s="3">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36">
         <v>95</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>15</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>11</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>0.73329999999999995</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>55.8</v>
       </c>
-      <c r="J36" s="7">
+      <c r="K36" s="7">
         <v>27</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>2.0667</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="8">
+      <c r="N36" s="8">
         <v>1</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>3</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>22</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="T36" s="2"/>
+      <c r="S36" s="5"/>
+      <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -8880,53 +9264,56 @@
       <c r="C37" s="3">
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37">
         <v>411</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>77</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>60</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>0.7792</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>202.64999999999998</v>
       </c>
-      <c r="J37" s="7">
+      <c r="K37" s="7">
         <v>99</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>2.0470000000000002</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M37" s="8">
+      <c r="N37" s="8">
         <v>-5</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>3</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>20</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R37" s="5"/>
-      <c r="T37" s="2"/>
+      <c r="S37" s="5"/>
+      <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -8936,53 +9323,56 @@
       <c r="C38" s="3">
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38">
         <v>82</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>16</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>11</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>0.6875</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>36.700000000000003</v>
       </c>
-      <c r="J38" s="7">
+      <c r="K38" s="7">
         <v>18</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>2.0388999999999999</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="8">
+      <c r="N38" s="8">
         <v>0</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>22</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="T38" s="2"/>
+      <c r="S38" s="5"/>
+      <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -8992,53 +9382,56 @@
       <c r="C39" s="3">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39">
         <v>621</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>103</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>90</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>0.87380000000000002</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>261.54999999999984</v>
       </c>
-      <c r="J39" s="7">
+      <c r="K39" s="7">
         <v>141</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>1.855</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M39" s="8">
+      <c r="N39" s="8">
         <v>-6</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>3</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>20</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="T39" s="2"/>
+      <c r="S39" s="5"/>
+      <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -9048,53 +9441,56 @@
       <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40">
         <v>270</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>53</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>45</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>0.84909999999999997</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <v>105.60000000000002</v>
       </c>
-      <c r="J40" s="7">
+      <c r="K40" s="7">
         <v>65</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>1.6246</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M40" s="8">
+      <c r="N40" s="8">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>3</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>22</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="T40" s="2"/>
+      <c r="S40" s="5"/>
+      <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -9104,53 +9500,56 @@
       <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41">
         <v>598</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>109</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>87</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>0.79820000000000002</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>277.64999999999986</v>
       </c>
-      <c r="J41" s="7">
+      <c r="K41" s="7">
         <v>145</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>1.9148000000000001</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M41" s="8">
+      <c r="N41" s="8">
         <v>-12</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>20</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R41" s="5"/>
-      <c r="T41" s="2"/>
+      <c r="S41" s="5"/>
+      <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -9160,53 +9559,56 @@
       <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42">
         <v>3</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>0</v>
       </c>
-      <c r="J42" s="7">
+      <c r="K42" s="7">
         <v>0</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>0</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M42" s="8">
+      <c r="N42" s="8">
         <v>13</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>22</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R42" s="5"/>
-      <c r="T42" s="2"/>
+      <c r="S42" s="5"/>
+      <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -9216,53 +9618,56 @@
       <c r="C43" s="2">
         <v>1</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43">
         <v>174</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>27</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>21</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>0.77780000000000005</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <v>73.050000000000026</v>
       </c>
-      <c r="J43" s="7">
+      <c r="K43" s="7">
         <v>36</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>2.0291999999999999</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="8">
+      <c r="N43" s="8">
         <v>13</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>22</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="T43" s="2"/>
+      <c r="S43" s="5"/>
+      <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -9272,53 +9677,56 @@
       <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44">
         <v>299</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>46</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>39</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>0.8478</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <v>124.55000000000001</v>
       </c>
-      <c r="J44" s="7">
+      <c r="K44" s="7">
         <v>71</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>1.7542</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M44" s="8">
+      <c r="N44" s="8">
         <v>6</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>22</v>
       </c>
-      <c r="Q44">
-        <f>IF(P44="GOOD", 1, 0)</f>
+      <c r="R44">
+        <f>IF(Q44="GOOD", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="R44" s="5"/>
-      <c r="T44" s="2"/>
+      <c r="S44" s="5"/>
+      <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -9328,53 +9736,56 @@
       <c r="C45" s="2">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45">
         <v>81</v>
-      </c>
-      <c r="E45">
-        <v>17</v>
       </c>
       <c r="F45">
         <v>17</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45">
+        <v>17</v>
+      </c>
+      <c r="H45" s="4">
         <v>1</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <v>47.650000000000006</v>
       </c>
-      <c r="J45" s="7">
+      <c r="K45" s="7">
         <v>25</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>1.9059999999999999</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M45" s="8">
+      <c r="N45" s="8">
         <v>6</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>22</v>
       </c>
-      <c r="Q45">
-        <f t="shared" ref="Q45:Q93" si="1">IF(P45="GOOD", 1, 0)</f>
+      <c r="R45">
+        <f t="shared" ref="R45:R93" si="1">IF(Q45="GOOD", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="R45" s="5"/>
-      <c r="T45" s="2"/>
+      <c r="S45" s="5"/>
+      <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -9384,53 +9795,56 @@
       <c r="C46" s="2">
         <v>2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46">
         <v>35</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>9</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>8</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>0.88890000000000002</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>23.55</v>
       </c>
-      <c r="J46" s="7">
+      <c r="K46" s="7">
         <v>11</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>2.1408999999999998</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M46" s="8">
+      <c r="N46" s="8">
         <v>6</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="P46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>22</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="T46" s="2"/>
+      <c r="S46" s="5"/>
+      <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -9440,53 +9854,56 @@
       <c r="C47" s="2">
         <v>2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47">
         <v>88</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>19</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>16</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>0.84209999999999996</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>38.049999999999997</v>
       </c>
-      <c r="J47" s="7">
+      <c r="K47" s="7">
         <v>20</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>1.9025000000000001</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M47" s="8">
+      <c r="N47" s="8">
         <v>12</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="P47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>22</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="T47" s="2"/>
+      <c r="S47" s="5"/>
+      <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -9496,53 +9913,56 @@
       <c r="C48" s="2">
         <v>2</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48">
         <v>26</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>3</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>7.5</v>
       </c>
-      <c r="J48" s="7">
+      <c r="K48" s="7">
         <v>4</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>1.875</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M48" s="8">
+      <c r="N48" s="8">
         <v>6</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="P48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>22</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R48" s="5"/>
-      <c r="T48" s="2"/>
+      <c r="S48" s="5"/>
+      <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -9552,53 +9972,56 @@
       <c r="C49" s="2">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49">
         <v>38</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>6</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>13.15</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K49" s="7">
         <v>6</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>2.1917</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M49" s="8">
+      <c r="N49" s="8">
         <v>6</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>22</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R49" s="5"/>
-      <c r="T49" s="2"/>
+      <c r="S49" s="5"/>
+      <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -9608,53 +10031,56 @@
       <c r="C50" s="2">
         <v>2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50">
         <v>513</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>99</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>84</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>0.84850000000000003</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>203.49999999999983</v>
       </c>
-      <c r="J50" s="7">
+      <c r="K50" s="7">
         <v>129</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>1.5774999999999999</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M50" s="8">
+      <c r="N50" s="8">
         <v>6</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>3</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="P50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>22</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R50" s="5"/>
-      <c r="T50" s="2"/>
+      <c r="S50" s="5"/>
+      <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -9664,53 +10090,56 @@
       <c r="C51" s="2">
         <v>3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51">
         <v>136</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>31</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>23</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>0.7419</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>70.700000000000017</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K51" s="7">
         <v>43</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>1.6442000000000001</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M51" s="8">
+      <c r="N51" s="8">
         <v>0</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>3</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>22</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="T51" s="2"/>
+      <c r="S51" s="5"/>
+      <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -9720,53 +10149,56 @@
       <c r="C52" s="2">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52">
         <v>400</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>85</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>67</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>0.78820000000000001</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>210.0499999999999</v>
       </c>
-      <c r="J52" s="7">
+      <c r="K52" s="7">
         <v>111</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>1.8923000000000001</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M52" s="8">
+      <c r="N52" s="8">
         <v>6</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="P52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>22</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="T52" s="2"/>
+      <c r="S52" s="5"/>
+      <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -9776,53 +10208,56 @@
       <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53">
         <v>4</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>0</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K53" s="7">
         <v>0</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <v>0</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M53" s="8">
+      <c r="N53" s="8">
         <v>-2</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>3</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="P53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>20</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="T53" s="2"/>
+      <c r="S53" s="5"/>
+      <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -9832,53 +10267,56 @@
       <c r="C54" s="2">
         <v>3</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54">
         <v>189</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>30</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>20</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>85.300000000000011</v>
       </c>
-      <c r="J54" s="7">
+      <c r="K54" s="7">
         <v>40</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="4">
         <v>2.1324999999999998</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M54" s="8">
+      <c r="N54" s="8">
         <v>-2</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>20</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R54" s="5"/>
-      <c r="T54" s="2"/>
+      <c r="S54" s="5"/>
+      <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -9888,53 +10326,56 @@
       <c r="C55" s="2">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55">
         <v>248</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>56</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>48</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>0.85709999999999997</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>123.10000000000002</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K55" s="7">
         <v>68</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <v>1.8103</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M55" s="8">
+      <c r="N55" s="8">
         <v>6</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>3</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="P55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>22</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="T55" s="2"/>
+      <c r="S55" s="5"/>
+      <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -9944,53 +10385,56 @@
       <c r="C56" s="2">
         <v>4</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56">
         <v>44</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>4</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <v>33</v>
       </c>
-      <c r="J56" s="7">
+      <c r="K56" s="7">
         <v>11</v>
       </c>
-      <c r="K56" s="4">
+      <c r="L56" s="4">
         <v>3</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M56" s="8">
+      <c r="N56" s="8">
         <v>-6</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>3</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="P56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>20</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="T56" s="2"/>
+      <c r="S56" s="5"/>
+      <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -10000,53 +10444,56 @@
       <c r="C57" s="2">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57">
         <v>219</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>52</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>43</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <v>0.82689999999999997</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="6">
         <v>81.15000000000002</v>
       </c>
-      <c r="J57" s="7">
+      <c r="K57" s="7">
         <v>60</v>
       </c>
-      <c r="K57" s="4">
+      <c r="L57" s="4">
         <v>1.3525</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M57" s="8">
+      <c r="N57" s="8">
         <v>-6</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="P57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>20</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R57" s="5"/>
-      <c r="T57" s="2"/>
+      <c r="S57" s="5"/>
+      <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -10056,53 +10503,56 @@
       <c r="C58" s="2">
         <v>4</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58">
         <v>236</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>49</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>44</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I58" s="6">
+      <c r="J58" s="6">
         <v>85.90000000000002</v>
       </c>
-      <c r="J58" s="7">
+      <c r="K58" s="7">
         <v>59</v>
       </c>
-      <c r="K58" s="4">
+      <c r="L58" s="4">
         <v>1.4559</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="M58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M58" s="8">
+      <c r="N58" s="8">
         <v>1</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="P58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>22</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R58" s="5"/>
-      <c r="T58" s="2"/>
+      <c r="S58" s="5"/>
+      <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -10112,53 +10562,56 @@
       <c r="C59" s="2">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59">
         <v>694</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>121</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>96</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>0.79339999999999999</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="6">
         <v>333.89999999999969</v>
       </c>
-      <c r="J59" s="7">
+      <c r="K59" s="7">
         <v>167</v>
       </c>
-      <c r="K59" s="4">
+      <c r="L59" s="4">
         <v>1.9994000000000001</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="M59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M59" s="8">
+      <c r="N59" s="8">
         <v>0</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="P59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>22</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="T59" s="2"/>
+      <c r="S59" s="5"/>
+      <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -10168,53 +10621,56 @@
       <c r="C60" s="2">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60">
         <v>133</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>25</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>18</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H60" s="4">
         <v>0.72</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="6">
         <v>38.650000000000006</v>
       </c>
-      <c r="J60" s="7">
+      <c r="K60" s="7">
         <v>28</v>
       </c>
-      <c r="K60" s="4">
+      <c r="L60" s="4">
         <v>1.3804000000000001</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M60" s="8">
+      <c r="N60" s="8">
         <v>6</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="P60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>22</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R60" s="5"/>
-      <c r="T60" s="2"/>
+      <c r="S60" s="5"/>
+      <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -10224,53 +10680,56 @@
       <c r="C61" s="2">
         <v>1</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61">
         <v>121</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>21</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>16</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>0.76190000000000002</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="6">
         <v>39.449999999999996</v>
       </c>
-      <c r="J61" s="7">
+      <c r="K61" s="7">
         <v>27</v>
       </c>
-      <c r="K61" s="4">
+      <c r="L61" s="4">
         <v>1.4611000000000001</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M61" s="8">
+      <c r="N61" s="8">
         <v>1</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>3</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="P61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>22</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R61" s="5"/>
-      <c r="T61" s="2"/>
+      <c r="S61" s="5"/>
+      <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -10280,53 +10739,56 @@
       <c r="C62" s="2">
         <v>2</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62">
         <v>145</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>28</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>23</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <v>0.82140000000000002</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>57.950000000000017</v>
       </c>
-      <c r="J62" s="7">
+      <c r="K62" s="7">
         <v>35</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L62" s="4">
         <v>1.6556999999999999</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M62" s="8">
+      <c r="N62" s="8">
         <v>-5</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="P62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>20</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R62" s="5"/>
-      <c r="T62" s="2"/>
+      <c r="S62" s="5"/>
+      <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -10336,53 +10798,56 @@
       <c r="C63" s="2">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63">
         <v>186</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>34</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>30</v>
       </c>
-      <c r="G63" s="4">
+      <c r="H63" s="4">
         <v>0.88239999999999996</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I63" s="6">
+      <c r="J63" s="6">
         <v>66.250000000000014</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K63" s="7">
         <v>43</v>
       </c>
-      <c r="K63" s="4">
+      <c r="L63" s="4">
         <v>1.5407</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="M63" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M63" s="8">
+      <c r="N63" s="8">
         <v>-12</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>3</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="P63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>20</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="T63" s="2"/>
+      <c r="S63" s="5"/>
+      <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -10392,53 +10857,56 @@
       <c r="C64" s="2">
         <v>2</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64">
         <v>51</v>
-      </c>
-      <c r="E64">
-        <v>12</v>
       </c>
       <c r="F64">
         <v>12</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64">
+        <v>12</v>
+      </c>
+      <c r="H64" s="4">
         <v>1</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I64" s="6">
+      <c r="J64" s="6">
         <v>17.05</v>
       </c>
-      <c r="J64" s="7">
+      <c r="K64" s="7">
         <v>13</v>
       </c>
-      <c r="K64" s="4">
+      <c r="L64" s="4">
         <v>1.3115000000000001</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M64" s="8">
+      <c r="N64" s="8">
         <v>6</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>3</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="P64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>22</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="T64" s="2"/>
+      <c r="S64" s="5"/>
+      <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -10448,53 +10916,56 @@
       <c r="C65" s="2">
         <v>2</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65">
         <v>156</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>27</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>23</v>
       </c>
-      <c r="G65" s="4">
+      <c r="H65" s="4">
         <v>0.85189999999999999</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I65" s="6">
+      <c r="J65" s="6">
         <v>52.500000000000007</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K65" s="7">
         <v>32</v>
       </c>
-      <c r="K65" s="4">
+      <c r="L65" s="4">
         <v>1.6406000000000001</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M65" s="8">
+      <c r="N65" s="8">
         <v>6</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>3</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="P65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>22</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="T65" s="2"/>
+      <c r="S65" s="5"/>
+      <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -10504,53 +10975,56 @@
       <c r="C66" s="2">
         <v>2</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66">
         <v>381</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>79</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>65</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H66" s="4">
         <v>0.82279999999999998</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I66" s="6">
+      <c r="J66" s="6">
         <v>184.04999999999995</v>
       </c>
-      <c r="J66" s="7">
+      <c r="K66" s="7">
         <v>106</v>
       </c>
-      <c r="K66" s="4">
+      <c r="L66" s="4">
         <v>1.7363</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M66" s="8">
+      <c r="N66" s="8">
         <v>6</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="P66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>22</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="T66" s="2"/>
+      <c r="S66" s="5"/>
+      <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -10560,53 +11034,56 @@
       <c r="C67" s="2">
         <v>3</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67">
         <v>130</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>26</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>22</v>
       </c>
-      <c r="G67" s="4">
+      <c r="H67" s="4">
         <v>0.84619999999999995</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I67" s="6">
+      <c r="J67" s="6">
         <v>62.950000000000024</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>38</v>
       </c>
-      <c r="K67" s="4">
+      <c r="L67" s="4">
         <v>1.6566000000000001</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="8">
+      <c r="N67" s="8">
         <v>0</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>3</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="P67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>22</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R67" s="5"/>
-      <c r="T67" s="2"/>
+      <c r="S67" s="5"/>
+      <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -10616,53 +11093,56 @@
       <c r="C68" s="2">
         <v>3</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68">
         <v>273</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>39</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>32</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>0.82050000000000001</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="6">
         <v>103.35000000000002</v>
       </c>
-      <c r="J68" s="7">
+      <c r="K68" s="7">
         <v>56</v>
       </c>
-      <c r="K68" s="4">
+      <c r="L68" s="4">
         <v>1.8454999999999999</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M68" s="8">
+      <c r="N68" s="8">
         <v>-1</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>3</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="P68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>20</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="T68" s="2"/>
+      <c r="S68" s="5"/>
+      <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -10672,53 +11152,56 @@
       <c r="C69" s="2">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69">
         <v>53</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>11</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>8</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <v>0.72729999999999995</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I69" s="6">
+      <c r="J69" s="6">
         <v>30.849999999999998</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K69" s="7">
         <v>13</v>
       </c>
-      <c r="K69" s="4">
+      <c r="L69" s="4">
         <v>2.3731</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="M69" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M69" s="8">
+      <c r="N69" s="8">
         <v>-6</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>3</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="P69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>20</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="T69" s="2"/>
+      <c r="S69" s="5"/>
+      <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -10728,53 +11211,56 @@
       <c r="C70" s="2">
         <v>3</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70">
         <v>150</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>34</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>27</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>0.79410000000000003</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I70" s="6">
+      <c r="J70" s="6">
         <v>77.550000000000026</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>42</v>
       </c>
-      <c r="K70" s="4">
+      <c r="L70" s="4">
         <v>1.8464</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="M70" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M70" s="8">
+      <c r="N70" s="8">
         <v>-6</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>3</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="P70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>20</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="T70" s="2"/>
+      <c r="S70" s="5"/>
+      <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -10784,53 +11270,56 @@
       <c r="C71" s="2">
         <v>3</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71">
         <v>81</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>18</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>13</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <v>0.72219999999999995</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="6">
+      <c r="J71" s="6">
         <v>43.95000000000001</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K71" s="7">
         <v>21</v>
       </c>
-      <c r="K71" s="4">
+      <c r="L71" s="4">
         <v>2.0929000000000002</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="M71" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M71" s="8">
+      <c r="N71" s="8">
         <v>0</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>3</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>22</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="T71" s="2"/>
+      <c r="S71" s="5"/>
+      <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -10840,53 +11329,56 @@
       <c r="C72" s="2">
         <v>3</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72">
         <v>539</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>108</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>88</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H72" s="4">
         <v>0.81479999999999997</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I72" s="6">
+      <c r="J72" s="6">
         <v>225.89999999999986</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>136</v>
       </c>
-      <c r="K72" s="4">
+      <c r="L72" s="4">
         <v>1.661</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M72" s="8">
+      <c r="N72" s="8">
         <v>0</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="P72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>22</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R72" s="5"/>
-      <c r="T72" s="2"/>
+      <c r="S72" s="5"/>
+      <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -10896,53 +11388,56 @@
       <c r="C73" s="2">
         <v>4</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73">
         <v>23</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>4</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>3</v>
       </c>
-      <c r="G73" s="4">
+      <c r="H73" s="4">
         <v>0.75</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I73" s="6">
+      <c r="J73" s="6">
         <v>8.4</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K73" s="7">
         <v>4</v>
       </c>
-      <c r="K73" s="4">
+      <c r="L73" s="4">
         <v>2.1</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="M73" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M73" s="8">
+      <c r="N73" s="8">
         <v>0</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>3</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="P73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>22</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="T73" s="2"/>
+      <c r="S73" s="5"/>
+      <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -10952,53 +11447,56 @@
       <c r="C74" s="2">
         <v>4</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74">
         <v>117</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>15</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>11</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="4">
         <v>0.73329999999999995</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I74" s="6">
+      <c r="J74" s="6">
         <v>58.800000000000004</v>
       </c>
-      <c r="J74" s="7">
+      <c r="K74" s="7">
         <v>24</v>
       </c>
-      <c r="K74" s="4">
+      <c r="L74" s="4">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="M74" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M74" s="8">
+      <c r="N74" s="8">
         <v>0</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>3</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="P74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>22</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="T74" s="2"/>
+      <c r="S74" s="5"/>
+      <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -11008,53 +11506,56 @@
       <c r="C75" s="2">
         <v>4</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75">
         <v>42</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75" s="4">
         <v>1</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I75" s="6">
+      <c r="J75" s="6">
         <v>2.7</v>
       </c>
-      <c r="J75" s="7">
+      <c r="K75" s="7">
         <v>3</v>
       </c>
-      <c r="K75" s="4">
+      <c r="L75" s="4">
         <v>0.9</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M75" s="8">
+      <c r="N75" s="8">
         <v>-1</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>3</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="P75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>20</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="T75" s="2"/>
+      <c r="S75" s="5"/>
+      <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -11064,53 +11565,56 @@
       <c r="C76" s="2">
         <v>4</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76">
         <v>40</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>10</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>9</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H76" s="4">
         <v>0.9</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I76" s="6">
+      <c r="J76" s="6">
         <v>23.95</v>
       </c>
-      <c r="J76" s="7">
+      <c r="K76" s="7">
         <v>13</v>
       </c>
-      <c r="K76" s="4">
+      <c r="L76" s="4">
         <v>1.8423</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="M76" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M76" s="8">
+      <c r="N76" s="8">
         <v>0</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="P76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>22</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="T76" s="2"/>
+      <c r="S76" s="5"/>
+      <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -11120,53 +11624,56 @@
       <c r="C77" s="2">
         <v>4</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77">
         <v>24</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>7</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>5</v>
       </c>
-      <c r="G77" s="4">
+      <c r="H77" s="4">
         <v>0.71430000000000005</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I77" s="6">
+      <c r="J77" s="6">
         <v>11.399999999999999</v>
       </c>
-      <c r="J77" s="7">
+      <c r="K77" s="7">
         <v>8</v>
       </c>
-      <c r="K77" s="4">
+      <c r="L77" s="4">
         <v>1.425</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="M77" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M77" s="8">
+      <c r="N77" s="8">
         <v>6</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>3</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="P77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>22</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="T77" s="2"/>
+      <c r="S77" s="5"/>
+      <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -11176,53 +11683,56 @@
       <c r="C78" s="2">
         <v>4</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78">
         <v>9</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78">
         <v>1</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I78" s="6">
+      <c r="J78" s="6">
         <v>3.75</v>
       </c>
-      <c r="J78" s="7">
+      <c r="K78" s="7">
         <v>1</v>
       </c>
-      <c r="K78" s="4">
+      <c r="L78" s="4">
         <v>3.75</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="M78" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M78" s="8">
+      <c r="N78" s="8">
         <v>6</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>3</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="P78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>22</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="T78" s="2"/>
+      <c r="S78" s="5"/>
+      <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -11232,53 +11742,56 @@
       <c r="C79" s="2">
         <v>1</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79">
         <v>249</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>48</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>40</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <v>0.83330000000000004</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="I79" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I79" s="6">
+      <c r="J79" s="6">
         <v>98.450000000000045</v>
       </c>
-      <c r="J79" s="7">
+      <c r="K79" s="7">
         <v>64</v>
       </c>
-      <c r="K79" s="4">
+      <c r="L79" s="4">
         <v>1.5383</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="M79" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M79" s="8">
+      <c r="N79" s="8">
         <v>-5</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>2</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="P79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>20</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R79" s="5"/>
-      <c r="T79" s="2"/>
+      <c r="S79" s="5"/>
+      <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -11288,53 +11801,56 @@
       <c r="C80" s="2">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80">
         <v>268</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>47</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>36</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H80" s="4">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I80" s="6">
+      <c r="J80" s="6">
         <v>125.60000000000004</v>
       </c>
-      <c r="J80" s="7">
+      <c r="K80" s="7">
         <v>65</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="4">
         <v>1.9322999999999999</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="M80" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M80" s="8">
+      <c r="N80" s="8">
         <v>1</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>2</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>22</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="T80" s="2"/>
+      <c r="S80" s="5"/>
+      <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -11344,53 +11860,56 @@
       <c r="C81" s="2">
         <v>1</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81">
         <v>625</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>122</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>93</v>
       </c>
-      <c r="G81" s="4">
+      <c r="H81" s="4">
         <v>0.76229999999999998</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I81" s="6">
+      <c r="J81" s="6">
         <v>301.19999999999987</v>
       </c>
-      <c r="J81" s="7">
+      <c r="K81" s="7">
         <v>158</v>
       </c>
-      <c r="K81" s="4">
+      <c r="L81" s="4">
         <v>1.9063000000000001</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M81" s="8">
+      <c r="N81" s="8">
         <v>0</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>2</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="P81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>22</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R81" s="5"/>
-      <c r="T81" s="2"/>
+      <c r="S81" s="5"/>
+      <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -11400,53 +11919,56 @@
       <c r="C82" s="2">
         <v>2</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82">
         <v>26</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>6</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>4</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H82" s="4">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I82" s="6">
+      <c r="J82" s="6">
         <v>24.15</v>
       </c>
-      <c r="J82" s="7">
+      <c r="K82" s="7">
         <v>9</v>
       </c>
-      <c r="K82" s="4">
+      <c r="L82" s="4">
         <v>2.6833</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="M82" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M82" s="8">
+      <c r="N82" s="8">
         <v>-6</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>2</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="P82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>20</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="T82" s="2"/>
+      <c r="S82" s="5"/>
+      <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -11456,53 +11978,56 @@
       <c r="C83" s="2">
         <v>2</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83">
         <v>40</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>6</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>5</v>
       </c>
-      <c r="G83" s="4">
+      <c r="H83" s="4">
         <v>0.83330000000000004</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I83" s="6">
+      <c r="J83" s="6">
         <v>18.149999999999999</v>
       </c>
-      <c r="J83" s="7">
+      <c r="K83" s="7">
         <v>9</v>
       </c>
-      <c r="K83" s="4">
+      <c r="L83" s="4">
         <v>2.0167000000000002</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M83" s="8">
+      <c r="N83" s="8">
         <v>-12</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>2</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="P83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>20</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R83" s="5"/>
-      <c r="T83" s="2"/>
+      <c r="S83" s="5"/>
+      <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -11512,53 +12037,56 @@
       <c r="C84" s="2">
         <v>2</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84">
         <v>192</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>33</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>24</v>
       </c>
-      <c r="G84" s="4">
+      <c r="H84" s="4">
         <v>0.72729999999999995</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I84" s="6">
+      <c r="J84" s="6">
         <v>85.150000000000034</v>
       </c>
-      <c r="J84" s="7">
+      <c r="K84" s="7">
         <v>42</v>
       </c>
-      <c r="K84" s="4">
+      <c r="L84" s="4">
         <v>2.0274000000000001</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="M84" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M84" s="8">
+      <c r="N84" s="8">
         <v>-6</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>2</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="P84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>20</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R84" s="5"/>
-      <c r="T84" s="2"/>
+      <c r="S84" s="5"/>
+      <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -11568,53 +12096,56 @@
       <c r="C85" s="2">
         <v>2</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85">
         <v>123</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>22</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>19</v>
       </c>
-      <c r="G85" s="4">
+      <c r="H85" s="4">
         <v>0.86360000000000003</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I85" s="6">
+      <c r="J85" s="6">
         <v>49.900000000000006</v>
       </c>
-      <c r="J85" s="7">
+      <c r="K85" s="7">
         <v>29</v>
       </c>
-      <c r="K85" s="4">
+      <c r="L85" s="4">
         <v>1.7206999999999999</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="M85" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M85" s="8">
+      <c r="N85" s="8">
         <v>6</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>2</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="P85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>22</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R85" s="5"/>
-      <c r="T85" s="2"/>
+      <c r="S85" s="5"/>
+      <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -11624,53 +12155,56 @@
       <c r="C86" s="2">
         <v>2</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86">
         <v>531</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>114</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>94</v>
       </c>
-      <c r="G86" s="4">
+      <c r="H86" s="4">
         <v>0.8246</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I86" s="6">
+      <c r="J86" s="6">
         <v>264.0999999999998</v>
       </c>
-      <c r="J86" s="7">
+      <c r="K86" s="7">
         <v>150</v>
       </c>
-      <c r="K86" s="4">
+      <c r="L86" s="4">
         <v>1.7606999999999999</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="M86" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M86" s="8">
+      <c r="N86" s="8">
         <v>-1</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>2</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="P86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>20</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R86" s="5"/>
-      <c r="T86" s="2"/>
+      <c r="S86" s="5"/>
+      <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -11680,53 +12214,56 @@
       <c r="C87" s="2">
         <v>3</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87">
         <v>555</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>120</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>100</v>
       </c>
-      <c r="G87" s="4">
+      <c r="H87" s="4">
         <v>0.83330000000000004</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I87" s="6">
+      <c r="J87" s="6">
         <v>244.19999999999982</v>
       </c>
-      <c r="J87" s="7">
+      <c r="K87" s="7">
         <v>145</v>
       </c>
-      <c r="K87" s="4">
+      <c r="L87" s="4">
         <v>1.6840999999999999</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="M87" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M87" s="8">
+      <c r="N87" s="8">
         <v>7</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>2</v>
       </c>
-      <c r="O87" s="2" t="s">
+      <c r="P87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>22</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R87" s="5"/>
-      <c r="T87" s="2"/>
+      <c r="S87" s="5"/>
+      <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -11736,53 +12273,56 @@
       <c r="C88" s="2">
         <v>4</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E88">
         <v>162</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>34</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>27</v>
       </c>
-      <c r="G88" s="4">
+      <c r="H88" s="4">
         <v>0.79410000000000003</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I88" s="6">
+      <c r="J88" s="6">
         <v>72.5</v>
       </c>
-      <c r="J88" s="7">
+      <c r="K88" s="7">
         <v>42</v>
       </c>
-      <c r="K88" s="4">
+      <c r="L88" s="4">
         <v>1.7262</v>
       </c>
-      <c r="L88" s="4" t="s">
+      <c r="M88" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M88" s="8">
+      <c r="N88" s="8">
         <v>0</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>2</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="P88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>22</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R88" s="5"/>
-      <c r="T88" s="2"/>
+      <c r="S88" s="5"/>
+      <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -11792,53 +12332,56 @@
       <c r="C89" s="2">
         <v>4</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89">
         <v>83</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>12</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>8</v>
       </c>
-      <c r="G89" s="4">
+      <c r="H89" s="4">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I89" s="6">
+      <c r="J89" s="6">
         <v>36.000000000000007</v>
       </c>
-      <c r="J89" s="7">
+      <c r="K89" s="7">
         <v>16</v>
       </c>
-      <c r="K89" s="4">
+      <c r="L89" s="4">
         <v>2.25</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="M89" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M89" s="8">
+      <c r="N89" s="8">
         <v>-1</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>2</v>
       </c>
-      <c r="O89" s="2" t="s">
+      <c r="P89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>20</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R89" s="5"/>
-      <c r="T89" s="2"/>
+      <c r="S89" s="5"/>
+      <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -11848,53 +12391,56 @@
       <c r="C90" s="2">
         <v>4</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90">
         <v>235</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>40</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>35</v>
       </c>
-      <c r="G90" s="4">
+      <c r="H90" s="4">
         <v>0.875</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I90" s="6">
+      <c r="J90" s="6">
         <v>89.400000000000034</v>
       </c>
-      <c r="J90" s="7">
+      <c r="K90" s="7">
         <v>54</v>
       </c>
-      <c r="K90" s="4">
+      <c r="L90" s="4">
         <v>1.6556</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="M90" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M90" s="8">
+      <c r="N90" s="8">
         <v>0</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>2</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="P90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>22</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R90" s="5"/>
-      <c r="T90" s="2"/>
+      <c r="S90" s="5"/>
+      <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -11904,53 +12450,56 @@
       <c r="C91" s="2">
         <v>4</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E91">
         <v>27</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>9</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>7</v>
       </c>
-      <c r="G91" s="4">
+      <c r="H91" s="4">
         <v>0.77780000000000005</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I91" s="6">
+      <c r="J91" s="6">
         <v>18.549999999999997</v>
       </c>
-      <c r="J91" s="7">
+      <c r="K91" s="7">
         <v>12</v>
       </c>
-      <c r="K91" s="4">
+      <c r="L91" s="4">
         <v>1.5458000000000001</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="M91" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M91" s="8">
+      <c r="N91" s="8">
         <v>-13</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>2</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="P91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>20</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R91" s="5"/>
-      <c r="T91" s="2"/>
+      <c r="S91" s="5"/>
+      <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -11960,54 +12509,57 @@
       <c r="C92" s="2">
         <v>4</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92">
         <v>55</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>9</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>7</v>
       </c>
-      <c r="G92" s="4">
+      <c r="H92" s="4">
         <v>0.77780000000000005</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I92" s="6">
+      <c r="J92" s="6">
         <v>25.65</v>
       </c>
-      <c r="J92" s="7">
+      <c r="K92" s="7">
         <v>14</v>
       </c>
-      <c r="K92" s="4">
+      <c r="L92" s="4">
         <v>1.8321000000000001</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="M92" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M92" s="8">
+      <c r="N92" s="8">
         <v>-13</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>2</v>
       </c>
-      <c r="O92" s="2" t="s">
+      <c r="P92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>20</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -12017,55 +12569,58 @@
       <c r="C93" s="2">
         <v>4</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93">
         <v>89</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>18</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>17</v>
       </c>
-      <c r="G93" s="4">
+      <c r="H93" s="4">
         <v>0.94440000000000002</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I93" s="6">
+      <c r="J93" s="6">
         <v>35.6</v>
       </c>
-      <c r="J93" s="7">
+      <c r="K93" s="7">
         <v>22</v>
       </c>
-      <c r="K93" s="4">
+      <c r="L93" s="4">
         <v>1.6182000000000001</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="M93" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M93" s="8">
+      <c r="N93" s="8">
         <v>-1</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>2</v>
       </c>
-      <c r="O93" s="2" t="s">
+      <c r="P93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>20</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P93" xr:uid="{50187FAC-F2B5-5042-AC60-BDB8B0EE9C51}"/>
+  <autoFilter ref="A1:Q93" xr:uid="{50187FAC-F2B5-5042-AC60-BDB8B0EE9C51}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
